--- a/doc/const_planets.xlsx
+++ b/doc/const_planets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1880" windowWidth="20140" windowHeight="13100" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="8060" windowWidth="20140" windowHeight="11180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,15 +73,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,1,1,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[-120,-34]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型（1=固态 2=气态 3=液态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,2001,30001,2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>12800</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>8730000</v>

--- a/doc/const_planets.xlsx
+++ b/doc/const_planets.xlsx
@@ -1,109 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="8060" windowWidth="20140" windowHeight="11180" tabRatio="500"/>
+    <workbookView windowWidth="15585" windowHeight="6975" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是NPC军团势力</t>
+  </si>
+  <si>
+    <t>军团势力ID</t>
+  </si>
+  <si>
+    <t>类型（1=固态 2=气态 3=液态）</t>
   </si>
   <si>
     <t>直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>气温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产出钛合金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产出晶体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产出氚氢气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产出水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产出有机物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>planet_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>迪费 卫星 I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,2001,30001,2]</t>
+  </si>
+  <si>
+    <t>legion_1007</t>
   </si>
   <si>
     <t>[-120,-34]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型（1=固态 2=气态 3=液态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1001,2001,30001,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,24 +114,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="办公室">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,79 +189,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="办公室">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="办公室">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -282,16 +293,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -376,8 +391,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -415,64 +430,77 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="A3C2FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:spPr>
       <a:bodyPr/>
       <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
     </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,72 +514,80 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>12800</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
         <v>8730000</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>500000</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1000</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/doc/const_planets.xlsx
+++ b/doc/const_planets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15585" windowHeight="6975" tabRatio="500"/>
+    <workbookView windowWidth="19080" windowHeight="7830" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>编号</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>产出有机物</t>
+  </si>
+  <si>
+    <t>可修建的建筑</t>
   </si>
   <si>
     <t>planet_1001</t>
@@ -79,20 +82,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -118,19 +116,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -484,10 +482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -498,9 +496,10 @@
     <col min="5" max="5" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,23 +541,26 @@
       </c>
       <c r="N1" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -567,7 +569,7 @@
         <v>12800</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2">
         <v>8730000</v>

--- a/doc/const_planets.xlsx
+++ b/doc/const_planets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7830" tabRatio="500"/>
+    <workbookView windowWidth="15930" windowHeight="7785" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
@@ -132,8 +132,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,8 +487,8 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -496,7 +499,7 @@
     <col min="5" max="5" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
+    <col min="15" max="15" width="59.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -546,46 +549,48 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    <row r="2" ht="126" customHeight="1" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>12800</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>8730000</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>500000</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>1000</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>0</v>
       </c>
+      <c r="O2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/const_planets.xlsx
+++ b/doc/const_planets.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="15930" windowHeight="7785" tabRatio="500"/>
+    <workbookView xWindow="10280" yWindow="80" windowWidth="15940" windowHeight="7780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>编号</t>
   </si>
@@ -75,22 +79,25 @@
   </si>
   <si>
     <t>[-120,-34]</t>
+  </si>
+  <si>
+    <t>{"resources":["building_1001","building_1002","building_1003"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -112,23 +119,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -138,14 +130,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -444,6 +433,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -483,23 +473,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="59.125" customWidth="1"/>
+    <col min="15" max="15" width="59.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -549,7 +538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="126" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15" ht="126" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -590,11 +579,19 @@
       <c r="N2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/const_planets.xlsx
+++ b/doc/const_planets.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="80" windowWidth="15940" windowHeight="7780" tabRatio="500"/>
+    <workbookView windowWidth="19080" windowHeight="7830" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>编号</t>
   </si>
@@ -48,19 +44,34 @@
     <t>气温</t>
   </si>
   <si>
-    <t>产出钛合金</t>
-  </si>
-  <si>
-    <t>产出晶体</t>
-  </si>
-  <si>
-    <t>产出氚氢气</t>
-  </si>
-  <si>
-    <t>产出水</t>
-  </si>
-  <si>
-    <t>产出有机物</t>
+    <t>钛合金总量</t>
+  </si>
+  <si>
+    <t>水晶总量</t>
+  </si>
+  <si>
+    <t>氚氢气总量</t>
+  </si>
+  <si>
+    <t>水总量</t>
+  </si>
+  <si>
+    <t>有机物总量</t>
+  </si>
+  <si>
+    <t>钛合金持有量</t>
+  </si>
+  <si>
+    <t>水晶持有量</t>
+  </si>
+  <si>
+    <t>氚氢气持有量</t>
+  </si>
+  <si>
+    <t>水持有量</t>
+  </si>
+  <si>
+    <t>有机物持有量</t>
   </si>
   <si>
     <t>可修建的建筑</t>
@@ -82,14 +93,19 @@
   </si>
   <si>
     <t>{"resources":["building_1001","building_1002","building_1003"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -97,7 +113,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -119,8 +135,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -130,11 +161,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -433,7 +467,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -473,25 +506,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.1666666666667" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="59.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="11.75" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
+    <col min="20" max="20" width="59.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,23 +577,38 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="126" customHeight="1">
+    <row r="2" ht="126" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -562,7 +617,7 @@
         <v>12800</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1">
         <v>8730000</v>
@@ -579,19 +634,28 @@
       <c r="N2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
+      <c r="O2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>100</v>
+      </c>
+      <c r="R2" s="1">
+        <v>50</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/const_planets.xlsx
+++ b/doc/const_planets.xlsx
@@ -92,7 +92,7 @@
     <t>[-120,-34]</t>
   </si>
   <si>
-    <t>{"resources":["building_1001","building_1002","building_1003"]}</t>
+    <t>{"resources":["building_1001","building_1002","building_1003"],"functions":["building_2001","building_2002"]}</t>
   </si>
 </sst>
 </file>
@@ -105,15 +105,10 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -139,19 +134,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -510,8 +505,8 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
